--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\CB020_機能設計書\AA010_定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0045C989-8D5B-4C4D-9D64-5F12A953B3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD25CD-A81A-47A5-8C32-D5AE9D8FAA30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25308" yWindow="6108" windowWidth="16332" windowHeight="14256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>ld</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銘柄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,19 +649,19 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1002,16 +1029,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15">
         <f t="shared" ref="E15:E19" si="7">COUNTIF(B:B,B15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F19" si="8">COUNTIF(C:C,C15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G19" si="9">COUNTIF(D:D,D15)</f>
@@ -1023,16 +1054,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
@@ -1044,16 +1079,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
@@ -1124,10 +1163,10 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD25CD-A81A-47A5-8C32-D5AE9D8FAA30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF47FA-931C-4114-B514-D35F8CA70E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="5060" windowWidth="14460" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$D$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>directory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>err</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -714,7 +726,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A19" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -727,15 +739,15 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">COUNTIF(B:B,B3)</f>
+        <f>COUNTIF(B:B,B3)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">COUNTIF(C:C,C3)</f>
+        <f>COUNTIF(C:C,C3)</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="3">COUNTIF(D:D,D3)</f>
+        <f>COUNTIF(D:D,D3)</f>
         <v>1</v>
       </c>
     </row>
@@ -754,15 +766,15 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(B:B,B4)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(C:C,C4)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(D:D,D4)</f>
         <v>1</v>
       </c>
     </row>
@@ -779,15 +791,15 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(B:B,B5)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(C:C,C5)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(D:D,D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -806,15 +818,15 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E14" si="4">COUNTIF(B:B,B6)</f>
+        <f>COUNTIF(B:B,B6)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="5">COUNTIF(C:C,C6)</f>
+        <f>COUNTIF(C:C,C6)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G14" si="6">COUNTIF(D:D,D6)</f>
+        <f>COUNTIF(D:D,D6)</f>
         <v>1</v>
       </c>
     </row>
@@ -833,15 +845,15 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B7)</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C7)</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D7)</f>
         <v>1</v>
       </c>
     </row>
@@ -858,15 +870,15 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B8)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C8)</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -883,15 +895,15 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B9)</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C9)</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -908,15 +920,15 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B10)</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C10)</f>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -933,15 +945,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B11)</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C11)</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -960,15 +972,15 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B12)</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C12)</f>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D12)</f>
         <v>1</v>
       </c>
     </row>
@@ -985,15 +997,15 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B13)</f>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1012,15 +1024,15 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B14)</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C14)</f>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1037,15 +1049,15 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f t="shared" ref="E15:E19" si="7">COUNTIF(B:B,B15)</f>
+        <f>COUNTIF(B:B,B15)</f>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="8">COUNTIF(C:C,C15)</f>
+        <f>COUNTIF(C:C,C15)</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G19" si="9">COUNTIF(D:D,D15)</f>
+        <f>COUNTIF(D:D,D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -1062,15 +1074,15 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(B:B,B16)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(C:C,C16)</f>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(D:D,D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1087,15 +1099,15 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(B:B,B17)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(C:C,C17)</f>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(D:D,D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1104,20 +1116,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIF(B:B,B18)</f>
+        <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C18)</f>
+        <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIF(D:D,D18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1129,15 +1147,57 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(B:B,B19)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(C:C,C19)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(D:D,D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20">
+        <f>COUNTIF(B:B,B20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(C:C,C20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(D:D,D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21">
+        <f>COUNTIF(B:B,B21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(C:C,C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(D:D,D21)</f>
         <v>0</v>
       </c>
     </row>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF47FA-931C-4114-B514-D35F8CA70E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F5806-FA84-434E-8658-3991C5EA9864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="5060" windowWidth="14460" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4730" yWindow="2940" windowWidth="13640" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -301,6 +300,152 @@
   </si>
   <si>
     <t>err</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーションする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simulate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シグナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認する</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パフォーマンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>measurement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pfa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過時間</t>
+    <rPh sb="0" eb="4">
+      <t>ケイカジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elapsedTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポジション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pos</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,22 +803,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -712,21 +857,21 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="E2:E35" si="0">COUNTIF(B:B,B2)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="F2:F35" si="1">COUNTIF(C:C,C2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>COUNTIF(D:D,D2)</f>
+        <f t="shared" ref="G2:G35" si="2">COUNTIF(D:D,D2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A35" si="3">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -739,21 +884,21 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(C:C,C3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>COUNTIF(D:D,D3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -766,21 +911,21 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(C:C,C4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(D:D,D4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -791,21 +936,21 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(C:C,C5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>COUNTIF(D:D,D5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -818,21 +963,21 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(C:C,C6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>COUNTIF(D:D,D6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -845,21 +990,21 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(C:C,C7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>COUNTIF(D:D,D7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -870,21 +1015,21 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>COUNTIF(C:C,C8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>COUNTIF(D:D,D8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -895,21 +1040,21 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(C:C,C9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(D:D,D9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -920,21 +1065,21 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(C:C,C10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>COUNTIF(D:D,D10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -945,21 +1090,21 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(C:C,C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(D:D,D11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -972,21 +1117,21 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>COUNTIF(C:C,C12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f>COUNTIF(D:D,D12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -997,21 +1142,21 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(C:C,C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f>COUNTIF(D:D,D13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1024,21 +1169,21 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(C:C,C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>COUNTIF(D:D,D14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1049,21 +1194,21 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f>COUNTIF(C:C,C15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>COUNTIF(D:D,D15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1074,21 +1219,21 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>COUNTIF(C:C,C16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>COUNTIF(D:D,D16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1099,21 +1244,21 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>COUNTIF(C:C,C17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>COUNTIF(D:D,D17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1126,78 +1271,438 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>COUNTIF(C:C,C18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>COUNTIF(D:D,D18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E19">
-        <f>COUNTIF(B:B,B19)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F19">
-        <f>COUNTIF(C:C,C19)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G19">
-        <f>COUNTIF(D:D,D19)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20">
-        <f>COUNTIF(B:B,B20)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20">
-        <f>COUNTIF(C:C,C20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G20">
-        <f>COUNTIF(D:D,D20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21">
-        <f>COUNTIF(B:B,B21)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(C:C,C21)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(D:D,D21)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1217,7 +1722,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1282,16 +1787,20 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3">
         <f t="shared" ref="E3:G5" si="0">COUNTIF(B:B,B3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F5806-FA84-434E-8658-3991C5EA9864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5BF58-AB35-4BA8-9DD8-CAE840AEFF2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4730" yWindow="2940" windowWidth="13640" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5720" yWindow="2550" windowWidth="11750" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,10 +821,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1606,20 +1621,26 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5BF58-AB35-4BA8-9DD8-CAE840AEFF2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AE7E0-13C4-4952-8F70-7CD1B2C52E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="2550" windowWidth="11750" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="5340" windowWidth="15490" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -821,10 +821,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AE7E0-13C4-4952-8F70-7CD1B2C52E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1F255-7FA4-4C90-9482-217BDB539AEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="5340" windowWidth="15490" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17970" yWindow="3280" windowWidth="17210" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -461,6 +461,28 @@
   </si>
   <si>
     <t>scn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週足</t>
+    <rPh sb="0" eb="2">
+      <t>シュウアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weekly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月足</t>
+    <rPh sb="0" eb="2">
+      <t>ツキアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monthly</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,10 +843,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1648,16 +1670,20 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -1669,16 +1695,20 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1F255-7FA4-4C90-9482-217BDB539AEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E99CC3-9AA5-4418-AF32-5B22FBDE68CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="3280" windowWidth="17210" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22660" yWindow="600" windowWidth="14680" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -483,6 +484,136 @@
   </si>
   <si>
     <t>monthly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始値</t>
+  </si>
+  <si>
+    <t>高値</t>
+  </si>
+  <si>
+    <t>安値</t>
+  </si>
+  <si>
+    <t>終値</t>
+  </si>
+  <si>
+    <t>出来高</t>
+  </si>
+  <si>
+    <t>openPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>highPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lowPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closingPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＣＡＤシグナル</t>
+  </si>
+  <si>
+    <t>ＭＣＡＤヒストグラム</t>
+  </si>
+  <si>
+    <t>勢力指数</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力指数２ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力指数１３ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＣＡＤライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadLine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadSignal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadHistogram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>powerIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>powerIndexTwoEma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>powerIndexThirteenEma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi2ema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi13ema</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,9 +687,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -840,13 +973,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -908,7 +1041,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A35" si="3">ROW()-1</f>
+        <f t="shared" ref="A3:A46" si="3">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1720,20 +1853,26 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1741,19 +1880,272 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E46" si="4">COUNTIF(B:B,B36)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F46" si="5">COUNTIF(C:C,C36)</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G46" si="6">COUNTIF(D:D,D36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1767,22 +2159,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1862,39 +2254,295 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E16" si="1">COUNTIF(B:B,B6)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F16" si="2">COUNTIF(C:C,C6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="3">COUNTIF(D:D,D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E99CC3-9AA5-4418-AF32-5B22FBDE68CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7BC2C-6D7D-4922-B89E-E93FD9A7D31A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22660" yWindow="600" windowWidth="14680" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="840" windowWidth="20470" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -614,6 +614,109 @@
   </si>
   <si>
     <t>pi13ema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純移動平均</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>イドウヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simpleMovingAverage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movingAverage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動平均</t>
+    <rPh sb="0" eb="4">
+      <t>イドウヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指数移動平均</t>
+    <rPh sb="0" eb="6">
+      <t>シスウイドウヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exponentialMovingAverage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間開始日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodStartDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodEndDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間終了日</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typeOfPeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stockPriceCalculationValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stockPriceTimeSeriesId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sptsId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,11 +1078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1986,16 +2089,20 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
@@ -2159,13 +2266,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2410,76 +2517,98 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -2490,16 +2619,20 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -2510,16 +2643,20 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
@@ -2530,20 +2667,50 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="4">COUNTIF(B:B,B17)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="5">COUNTIF(C:C,C17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="6">COUNTIF(D:D,D17)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7BC2C-6D7D-4922-B89E-E93FD9A7D31A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB0538-8DB4-48A1-BE32-0265BBC253D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="840" windowWidth="20470" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1870" windowWidth="15230" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -717,6 +717,21 @@
   </si>
   <si>
     <t>daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mgt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1079,10 +1094,10 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:C33"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2114,20 +2129,26 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACB0538-8DB4-48A1-BE32-0265BBC253D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB86A17-B5C7-4A74-A00D-3328F1E68646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1870" windowWidth="15230" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13090" yWindow="3320" windowWidth="24190" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="152">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -732,6 +732,26 @@
   </si>
   <si>
     <t>mgt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indicator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクニカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>technical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tech</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1097,7 +1117,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2156,16 +2176,20 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
@@ -2177,20 +2201,26 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB86A17-B5C7-4A74-A00D-3328F1E68646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27DD89B-035F-46A2-9292-404A83E1BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13090" yWindow="3320" windowWidth="24190" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21080" yWindow="3360" windowWidth="12980" windowHeight="16790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -700,18 +700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株価時系列ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stockPriceTimeSeriesId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sptsId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日足</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -752,6 +740,30 @@
   </si>
   <si>
     <t>tech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列期間の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_price_time_series_period_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sptspt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stockPriceTimeSeries</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spts</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1113,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2125,10 +2137,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39">
@@ -2150,13 +2162,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
@@ -2177,10 +2189,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41">
@@ -2202,13 +2214,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
@@ -2317,21 +2329,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2360,6 +2372,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2385,7 +2398,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A18" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2396,20 +2410,21 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3">
-        <f t="shared" ref="E3:G5" si="0">COUNTIF(B:B,B3)</f>
+        <f t="shared" ref="E3:G5" si="1">COUNTIF(B:B,B3)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2422,20 +2437,21 @@
         <v>110</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2448,20 +2464,21 @@
         <v>117</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2474,20 +2491,21 @@
         <v>118</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E16" si="1">COUNTIF(B:B,B6)</f>
+        <f t="shared" ref="E6:E16" si="2">COUNTIF(B:B,B6)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F16" si="2">COUNTIF(C:C,C6)</f>
+        <f t="shared" ref="F6:F16" si="3">COUNTIF(C:C,C6)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G16" si="3">COUNTIF(D:D,D6)</f>
+        <f t="shared" ref="G6:G16" si="4">COUNTIF(D:D,D6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2500,20 +2518,21 @@
         <v>119</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2526,20 +2545,21 @@
         <v>120</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2552,20 +2572,21 @@
         <v>121</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2578,20 +2599,21 @@
         <v>128</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2604,20 +2626,21 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2630,20 +2653,21 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2654,20 +2678,21 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2678,20 +2703,21 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2702,20 +2728,21 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2726,41 +2753,69 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="4">COUNTIF(B:B,B17)</f>
+        <f t="shared" ref="E17" si="5">COUNTIF(B:B,B17)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="5">COUNTIF(C:C,C17)</f>
+        <f t="shared" ref="F17" si="6">COUNTIF(C:C,C17)</f>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17" si="6">COUNTIF(D:D,D17)</f>
+        <f t="shared" ref="G17" si="7">COUNTIF(D:D,D17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="8">COUNTIF(B:B,B18)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="9">COUNTIF(C:C,C18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="10">COUNTIF(D:D,D18)</f>
         <v>1</v>
       </c>
     </row>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27DD89B-035F-46A2-9292-404A83E1BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA8AD9-4EE8-4775-8DBB-77DC0E4DFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21080" yWindow="3360" windowWidth="12980" windowHeight="16790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26470" yWindow="18640" windowWidth="11930" windowHeight="1550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="230">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -747,10 +747,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock_price_time_series_period_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sptspt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -764,6 +760,340 @@
   </si>
   <si>
     <t>spts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期</t>
+    <rPh sb="0" eb="2">
+      <t>チョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期</t>
+    <rPh sb="0" eb="2">
+      <t>タンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longTerm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shortTerm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayBefore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>initialize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finalize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了化</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calcDays</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算日数</t>
+    <rPh sb="0" eb="4">
+      <t>ケイサンニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スムーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smooth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スムーズ化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smoothing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculationDays</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stockPriceTimeSeriesPeriodType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stockPriceCalcValueType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spcvt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trendFollow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレンドフォロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オシレーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oscillator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクショナル・システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アキュミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディストリビューション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストキャスティック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モメンタム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルダー線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィリアムズの％Ｒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コモディティー・チャネル指数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新高値―新安値指数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プット―コール比率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強気のコンセンサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騰落指数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーダー指数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directionalSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accumulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distribution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dtocaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elderLine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WilliamsPercentr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wmpr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commodityChannelIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cci</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newHighNewLowIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nhnli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>putCallRatio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pcr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bullishConsensus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>riseFallIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>traderIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rfi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>el</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -837,12 +1167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1123,19 +1454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -1177,21 +1508,21 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <f t="shared" ref="E2:E35" si="0">COUNTIF(B:B,B2)</f>
+        <f>COUNTIF(B:B,B2)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F35" si="1">COUNTIF(C:C,C2)</f>
+        <f>COUNTIF(C:C,C2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G35" si="2">COUNTIF(D:D,D2)</f>
+        <f>COUNTIF(D:D,D2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A46" si="3">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1204,21 +1535,21 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B3)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C3)</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1231,21 +1562,21 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B4)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C4)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1256,21 +1587,21 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B5)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C5)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1283,21 +1614,21 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B6)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C6)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1310,21 +1641,21 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B7)</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C7)</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1335,21 +1666,21 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B8)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C8)</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1360,21 +1691,21 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B9)</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C9)</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1385,21 +1716,21 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B10)</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C10)</f>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1410,21 +1741,21 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B11)</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C11)</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1437,21 +1768,21 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B12)</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C12)</f>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1462,21 +1793,21 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B13)</f>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1489,21 +1820,21 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B14)</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C14)</f>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1514,21 +1845,21 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B15)</f>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C15)</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1539,21 +1870,21 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B16)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C16)</f>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1564,21 +1895,21 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B17)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C17)</f>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1591,21 +1922,21 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B18)</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C18)</f>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1618,21 +1949,21 @@
         <v>53</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B19)</f>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C19)</f>
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1643,21 +1974,21 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B20)</f>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C20)</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1668,21 +1999,21 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B21)</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C21)</f>
         <v>2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1695,21 +2026,21 @@
         <v>59</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B22)</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C22)</f>
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1722,21 +2053,21 @@
         <v>62</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B23)</f>
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C23)</f>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1749,21 +2080,21 @@
         <v>65</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B24)</f>
         <v>1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C24)</f>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1776,21 +2107,21 @@
         <v>72</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B25)</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C25)</f>
         <v>2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D25)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1803,21 +2134,21 @@
         <v>72</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B26)</f>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C26)</f>
         <v>2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D26)</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1830,21 +2161,21 @@
         <v>71</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B27)</f>
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C27)</f>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1855,21 +2186,21 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B28)</f>
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C28)</f>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1882,21 +2213,21 @@
         <v>79</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B29)</f>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C29)</f>
         <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1909,21 +2240,21 @@
         <v>82</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B30)</f>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C30)</f>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1936,21 +2267,21 @@
         <v>85</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B31)</f>
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C31)</f>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1961,21 +2292,21 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B32)</f>
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C32)</f>
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1986,21 +2317,21 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B33)</f>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C33)</f>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2013,21 +2344,21 @@
         <v>96</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B34)</f>
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C34)</f>
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2040,21 +2371,21 @@
         <v>98</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B:B,B35)</f>
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C35)</f>
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D:D,D35)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2067,21 +2398,21 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E46" si="4">COUNTIF(B:B,B36)</f>
+        <f>COUNTIF(B:B,B36)</f>
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F46" si="5">COUNTIF(C:C,C36)</f>
+        <f>COUNTIF(C:C,C36)</f>
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G46" si="6">COUNTIF(D:D,D36)</f>
+        <f>COUNTIF(D:D,D36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2094,21 +2425,21 @@
         <v>102</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B37)</f>
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C37)</f>
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2119,21 +2450,21 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B38)</f>
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C38)</f>
         <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2144,21 +2475,21 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B39)</f>
         <v>1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C39)</f>
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2171,21 +2502,21 @@
         <v>143</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B40)</f>
         <v>1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C40)</f>
         <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D40)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2196,21 +2527,21 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B41)</f>
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C41)</f>
         <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2223,99 +2554,792 @@
         <v>148</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(B:B,B42)</f>
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C:C,C42)</f>
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D42)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E43">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>COUNTIF(B:B,B43)</f>
+        <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C43)</f>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>COUNTIF(D:D,D43)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>COUNTIF(B:B,B44)</f>
+        <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C44)</f>
+        <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>COUNTIF(D:D,D44)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>COUNTIF(B:B,B45)</f>
+        <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C45)</f>
+        <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>COUNTIF(B:B,B46)</f>
+        <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C46)</f>
+        <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(D:D,D46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47">
+        <f>COUNTIF(B:B,B47)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(C:C,C47)</f>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f>COUNTIF(D:D,D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48">
+        <f>COUNTIF(B:B,B48)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIF(C:C,C48)</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>COUNTIF(D:D,D48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49">
+        <f>COUNTIF(B:B,B49)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIF(C:C,C49)</f>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f>COUNTIF(D:D,D49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50">
+        <f>COUNTIF(B:B,B50)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIF(C:C,C50)</f>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>COUNTIF(D:D,D50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51">
+        <f>COUNTIF(B:B,B51)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIF(C:C,C51)</f>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f>COUNTIF(D:D,D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52">
+        <f>COUNTIF(B:B,B52)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(C:C,C52)</f>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f>COUNTIF(D:D,D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53">
+        <f>COUNTIF(B:B,B53)</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIF(C:C,C53)</f>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(D:D,D53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54">
+        <f>COUNTIF(B:B,B54)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>COUNTIF(C:C,C54)</f>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f>COUNTIF(D:D,D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55">
+        <f>COUNTIF(B:B,B55)</f>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f>COUNTIF(C:C,C55)</f>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f>COUNTIF(D:D,D55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56">
+        <f>COUNTIF(B:B,B56)</f>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f>COUNTIF(C:C,C56)</f>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f>COUNTIF(D:D,D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57">
+        <f>COUNTIF(B:B,B57)</f>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f>COUNTIF(C:C,C57)</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f>COUNTIF(D:D,D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58">
+        <f>COUNTIF(B:B,B58)</f>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIF(C:C,C58)</f>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>COUNTIF(D:D,D58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59">
+        <f>COUNTIF(B:B,B59)</f>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIF(C:C,C59)</f>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f>COUNTIF(D:D,D59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60">
+        <f>COUNTIF(B:B,B60)</f>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIF(C:C,C60)</f>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f>COUNTIF(D:D,D60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61">
+        <f>COUNTIF(B:B,B61)</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIF(C:C,C61)</f>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f>COUNTIF(D:D,D61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62">
+        <f>COUNTIF(B:B,B62)</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIF(C:C,C62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>COUNTIF(D:D,D62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63">
+        <f>COUNTIF(B:B,B63)</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIF(C:C,C63)</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>COUNTIF(D:D,D63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64">
+        <f>COUNTIF(B:B,B64)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIF(C:C,C64)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>COUNTIF(D:D,D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65">
+        <f>COUNTIF(B:B,B65)</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIF(C:C,C65)</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>COUNTIF(D:D,D65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4">
+        <f t="shared" ref="A66:A75" si="1">ROW()-1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66">
+        <f>COUNTIF(B:B,B66)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIF(C:C,C66)</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>COUNTIF(D:D,D66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67">
+        <f>COUNTIF(B:B,B67)</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>COUNTIF(C:C,C67)</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>COUNTIF(D:D,D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68">
+        <f>COUNTIF(B:B,B68)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>COUNTIF(C:C,C68)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>COUNTIF(D:D,D68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69">
+        <f>COUNTIF(B:B,B69)</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>COUNTIF(C:C,C69)</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>COUNTIF(D:D,D69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70">
+        <f>COUNTIF(B:B,B70)</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>COUNTIF(C:C,C70)</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f>COUNTIF(D:D,D70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71">
+        <f>COUNTIF(B:B,B71)</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>COUNTIF(C:C,C71)</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f>COUNTIF(D:D,D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72">
+        <f>COUNTIF(B:B,B72)</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>COUNTIF(C:C,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>COUNTIF(D:D,D72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73">
+        <f>COUNTIF(B:B,B73)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>COUNTIF(C:C,C73)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>COUNTIF(D:D,D73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74">
+        <f>COUNTIF(B:B,B74)</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>COUNTIF(C:C,C74)</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>COUNTIF(D:D,D74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75">
+        <f>COUNTIF(B:B,B75)</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>COUNTIF(C:C,C75)</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f>COUNTIF(D:D,D75)</f>
         <v>0</v>
       </c>
     </row>
@@ -2329,21 +3353,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2399,7 +3423,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A18" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A32" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2410,15 +3434,15 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3">
-        <f t="shared" ref="E3:G5" si="1">COUNTIF(B:B,B3)</f>
+        <f>COUNTIF(B:B,B3)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C3)</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D:D,D3)</f>
         <v>0</v>
       </c>
     </row>
@@ -2437,15 +3461,15 @@
         <v>110</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(B:B,B4)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C4)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D:D,D4)</f>
         <v>1</v>
       </c>
     </row>
@@ -2464,15 +3488,15 @@
         <v>117</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(B:B,B5)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C5)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D:D,D5)</f>
         <v>1</v>
       </c>
     </row>
@@ -2491,15 +3515,15 @@
         <v>118</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E16" si="2">COUNTIF(B:B,B6)</f>
+        <f>COUNTIF(B:B,B6)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F16" si="3">COUNTIF(C:C,C6)</f>
+        <f>COUNTIF(C:C,C6)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G16" si="4">COUNTIF(D:D,D6)</f>
+        <f>COUNTIF(D:D,D6)</f>
         <v>1</v>
       </c>
     </row>
@@ -2518,15 +3542,15 @@
         <v>119</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B7)</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C7)</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D7)</f>
         <v>1</v>
       </c>
     </row>
@@ -2545,15 +3569,15 @@
         <v>120</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B8)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C8)</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D8)</f>
         <v>1</v>
       </c>
     </row>
@@ -2572,15 +3596,15 @@
         <v>121</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B9)</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C9)</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D9)</f>
         <v>1</v>
       </c>
     </row>
@@ -2599,15 +3623,15 @@
         <v>128</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B10)</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C10)</f>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D10)</f>
         <v>1</v>
       </c>
     </row>
@@ -2626,15 +3650,15 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B11)</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C11)</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D11)</f>
         <v>1</v>
       </c>
     </row>
@@ -2653,15 +3677,15 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B12)</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C12)</f>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D12)</f>
         <v>1</v>
       </c>
     </row>
@@ -2678,15 +3702,15 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B13)</f>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C13)</f>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -2703,15 +3727,15 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B14)</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C14)</f>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -2728,15 +3752,15 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B15)</f>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C15)</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -2753,15 +3777,15 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(B:B,B16)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(C:C,C16)</f>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(D:D,D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2771,24 +3795,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="5">COUNTIF(B:B,B17)</f>
+        <f>COUNTIF(B:B,B17)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="6">COUNTIF(C:C,C17)</f>
+        <f>COUNTIF(C:C,C17)</f>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17" si="7">COUNTIF(D:D,D17)</f>
+        <f>COUNTIF(D:D,D17)</f>
         <v>1</v>
       </c>
     </row>
@@ -2801,22 +3825,382 @@
         <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="8">COUNTIF(B:B,B18)</f>
+        <f>COUNTIF(B:B,B18)</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="9">COUNTIF(C:C,C18)</f>
+        <f>COUNTIF(C:C,C18)</f>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18" si="10">COUNTIF(D:D,D18)</f>
-        <v>1</v>
+        <f>COUNTIF(D:D,D18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(B:B,B19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF(C:C,C19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(D:D,D19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF(B:B,B20)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(C:C,C20)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(D:D,D20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIF(B:B,B21)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(C:C,C21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(D:D,D21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIF(B:B,B22)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF(C:C,C22)</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(D:D,D22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIF(B:B,B23)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF(C:C,C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(D:D,D23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIF(B:B,B24)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF(C:C,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(D:D,D24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIF(B:B,B25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIF(C:C,C25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(D:D,D25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIF(B:B,B26)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIF(C:C,C26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(D:D,D26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIF(B:B,B27)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(C:C,C27)</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(D:D,D27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIF(B:B,B28)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(C:C,C28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(D:D,D28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29">
+        <f>COUNTIF(B:B,B29)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(C:C,C29)</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(D:D,D29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30">
+        <f>COUNTIF(B:B,B30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(C:C,C30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(D:D,D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31">
+        <f>COUNTIF(B:B,B31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(C:C,C31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(D:D,D31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32">
+        <f>COUNTIF(B:B,B32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(C:C,C32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(D:D,D32)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA8AD9-4EE8-4775-8DBB-77DC0E4DFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453E2A7-34C7-4390-80A1-923CA9535EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26470" yWindow="18640" windowWidth="11930" windowHeight="1550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="2460" windowWidth="18470" windowHeight="16850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="239">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1094,6 +1094,51 @@
   </si>
   <si>
     <t>el</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入ＳＱＬ作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insertSqlCreation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別名</t>
+    <rPh sb="0" eb="2">
+      <t>ベツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1457,19 +1502,19 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1508,21 +1553,21 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(B:B,B2)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="F2:F33" si="1">COUNTIF(C:C,C2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>COUNTIF(D:D,D2)</f>
+        <f t="shared" ref="G2:G33" si="2">COUNTIF(D:D,D2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="3">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1535,21 +1580,21 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(C:C,C3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>COUNTIF(D:D,D3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1562,21 +1607,21 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(C:C,C4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(D:D,D4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1587,21 +1632,21 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(C:C,C5)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G5">
-        <f>COUNTIF(D:D,D5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1614,21 +1659,21 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(C:C,C6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>COUNTIF(D:D,D6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1641,21 +1686,21 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(C:C,C7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>COUNTIF(D:D,D7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1666,21 +1711,21 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>COUNTIF(C:C,C8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>COUNTIF(D:D,D8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1691,21 +1736,21 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(C:C,C9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(D:D,D9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1716,21 +1761,21 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(C:C,C10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>COUNTIF(D:D,D10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1741,21 +1786,21 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(C:C,C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(D:D,D11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1768,21 +1813,21 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>COUNTIF(C:C,C12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f>COUNTIF(D:D,D12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1793,21 +1838,21 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(C:C,C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f>COUNTIF(D:D,D13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1820,21 +1865,21 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(C:C,C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>COUNTIF(D:D,D14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1845,21 +1890,21 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f>COUNTIF(C:C,C15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>COUNTIF(D:D,D15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1870,21 +1915,21 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>COUNTIF(C:C,C16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>COUNTIF(D:D,D16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1895,21 +1940,21 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>COUNTIF(C:C,C17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>COUNTIF(D:D,D17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1922,21 +1967,21 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>COUNTIF(C:C,C18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>COUNTIF(D:D,D18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1949,21 +1994,21 @@
         <v>53</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>COUNTIF(C:C,C19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>COUNTIF(D:D,D19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1974,21 +2019,21 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20">
-        <f>COUNTIF(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>COUNTIF(C:C,C20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>COUNTIF(D:D,D20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1999,21 +2044,21 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21">
-        <f>COUNTIF(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(C:C,C21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(D:D,D21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2026,21 +2071,21 @@
         <v>59</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>COUNTIF(C:C,C22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>COUNTIF(D:D,D22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2053,21 +2098,21 @@
         <v>62</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>COUNTIF(C:C,C23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>COUNTIF(D:D,D23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2080,21 +2125,21 @@
         <v>65</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(C:C,C24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(D:D,D24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2107,21 +2152,21 @@
         <v>72</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>COUNTIF(C:C,C25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25">
-        <f>COUNTIF(D:D,D25)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2134,21 +2179,21 @@
         <v>72</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>COUNTIF(C:C,C26)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G26">
-        <f>COUNTIF(D:D,D26)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2161,21 +2206,21 @@
         <v>71</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(B:B,B27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>COUNTIF(C:C,C27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f>COUNTIF(D:D,D27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2186,21 +2231,21 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28">
-        <f>COUNTIF(B:B,B28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f>COUNTIF(C:C,C28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f>COUNTIF(D:D,D28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2213,21 +2258,21 @@
         <v>79</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(B:B,B29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f>COUNTIF(C:C,C29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>COUNTIF(D:D,D29)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2240,21 +2285,21 @@
         <v>82</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(B:B,B30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f>COUNTIF(C:C,C30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f>COUNTIF(D:D,D30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2267,21 +2312,21 @@
         <v>85</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(B:B,B31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31">
-        <f>COUNTIF(C:C,C31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f>COUNTIF(D:D,D31)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2292,21 +2337,21 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32">
-        <f>COUNTIF(B:B,B32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32">
-        <f>COUNTIF(C:C,C32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32">
-        <f>COUNTIF(D:D,D32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2317,21 +2362,21 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33">
-        <f>COUNTIF(B:B,B33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f>COUNTIF(C:C,C33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f>COUNTIF(D:D,D33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2344,21 +2389,21 @@
         <v>96</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(B:B,B34)</f>
+        <f t="shared" ref="E34:E65" si="4">COUNTIF(B:B,B34)</f>
         <v>1</v>
       </c>
       <c r="F34">
-        <f>COUNTIF(C:C,C34)</f>
+        <f t="shared" ref="F34:F65" si="5">COUNTIF(C:C,C34)</f>
         <v>1</v>
       </c>
       <c r="G34">
-        <f>COUNTIF(D:D,D34)</f>
+        <f t="shared" ref="G34:G65" si="6">COUNTIF(D:D,D34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2371,21 +2416,21 @@
         <v>98</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(B:B,B35)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F35">
-        <f>COUNTIF(C:C,C35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <f>COUNTIF(D:D,D35)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2398,21 +2443,21 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(B:B,B36)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F36">
-        <f>COUNTIF(C:C,C36)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G36">
-        <f>COUNTIF(D:D,D36)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2425,21 +2470,21 @@
         <v>102</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(B:B,B37)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F37">
-        <f>COUNTIF(C:C,C37)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f>COUNTIF(D:D,D37)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2450,21 +2495,21 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38">
-        <f>COUNTIF(B:B,B38)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f>COUNTIF(C:C,C38)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G38">
-        <f>COUNTIF(D:D,D38)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2475,21 +2520,21 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39">
-        <f>COUNTIF(B:B,B39)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F39">
-        <f>COUNTIF(C:C,C39)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G39">
-        <f>COUNTIF(D:D,D39)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2502,21 +2547,21 @@
         <v>143</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(B:B,B40)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F40">
-        <f>COUNTIF(C:C,C40)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G40">
-        <f>COUNTIF(D:D,D40)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2527,21 +2572,21 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41">
-        <f>COUNTIF(B:B,B41)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f>COUNTIF(C:C,C41)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G41">
-        <f>COUNTIF(D:D,D41)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2554,21 +2599,21 @@
         <v>148</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(B:B,B42)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F42">
-        <f>COUNTIF(C:C,C42)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f>COUNTIF(D:D,D42)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2581,21 +2626,21 @@
         <v>158</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(B:B,B43)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F43">
-        <f>COUNTIF(C:C,C43)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G43">
-        <f>COUNTIF(D:D,D43)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2608,21 +2653,21 @@
         <v>159</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(B:B,B44)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F44">
-        <f>COUNTIF(C:C,C44)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f>COUNTIF(D:D,D44)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2633,21 +2678,21 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45">
-        <f>COUNTIF(B:B,B45)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f>COUNTIF(C:C,C45)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G45">
-        <f>COUNTIF(D:D,D45)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2660,21 +2705,21 @@
         <v>164</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(B:B,B46)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f>COUNTIF(C:C,C46)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G46">
-        <f>COUNTIF(D:D,D46)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2685,21 +2730,21 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47">
-        <f>COUNTIF(B:B,B47)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F47">
-        <f>COUNTIF(C:C,C47)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G47">
-        <f>COUNTIF(D:D,D47)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2710,21 +2755,21 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48">
-        <f>COUNTIF(B:B,B48)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F48">
-        <f>COUNTIF(C:C,C48)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G48">
-        <f>COUNTIF(D:D,D48)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2735,21 +2780,21 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49">
-        <f>COUNTIF(B:B,B49)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f>COUNTIF(C:C,C49)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G49">
-        <f>COUNTIF(D:D,D49)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2762,21 +2807,21 @@
         <v>173</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(B:B,B50)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f>COUNTIF(C:C,C50)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G50">
-        <f>COUNTIF(D:D,D50)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2787,21 +2832,21 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51">
-        <f>COUNTIF(B:B,B51)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F51">
-        <f>COUNTIF(C:C,C51)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G51">
-        <f>COUNTIF(D:D,D51)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2812,21 +2857,21 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52">
-        <f>COUNTIF(B:B,B52)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F52">
-        <f>COUNTIF(C:C,C52)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G52">
-        <f>COUNTIF(D:D,D52)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2837,21 +2882,21 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53">
-        <f>COUNTIF(B:B,B53)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f>COUNTIF(C:C,C53)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <f>COUNTIF(D:D,D53)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2862,21 +2907,21 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54">
-        <f>COUNTIF(B:B,B54)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F54">
-        <f>COUNTIF(C:C,C54)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f>COUNTIF(D:D,D54)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2887,21 +2932,21 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55">
-        <f>COUNTIF(B:B,B55)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F55">
-        <f>COUNTIF(C:C,C55)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G55">
-        <f>COUNTIF(D:D,D55)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2912,21 +2957,21 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56">
-        <f>COUNTIF(B:B,B56)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F56">
-        <f>COUNTIF(C:C,C56)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G56">
-        <f>COUNTIF(D:D,D56)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2937,21 +2982,21 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57">
-        <f>COUNTIF(B:B,B57)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f>COUNTIF(C:C,C57)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G57">
-        <f>COUNTIF(D:D,D57)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2962,21 +3007,21 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58">
-        <f>COUNTIF(B:B,B58)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f>COUNTIF(C:C,C58)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G58">
-        <f>COUNTIF(D:D,D58)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2987,21 +3032,21 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59">
-        <f>COUNTIF(B:B,B59)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <f>COUNTIF(C:C,C59)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G59">
-        <f>COUNTIF(D:D,D59)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -3012,21 +3057,21 @@
       </c>
       <c r="D60" s="4"/>
       <c r="E60">
-        <f>COUNTIF(B:B,B60)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>COUNTIF(C:C,C60)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G60">
-        <f>COUNTIF(D:D,D60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -3037,309 +3082,321 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61">
-        <f>COUNTIF(B:B,B61)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F61">
-        <f>COUNTIF(C:C,C61)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G61">
-        <f>COUNTIF(D:D,D61)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62">
-        <f>COUNTIF(B:B,B62)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F62">
-        <f>COUNTIF(C:C,C62)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="G62">
-        <f>COUNTIF(D:D,D62)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63">
-        <f>COUNTIF(B:B,B63)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F63">
-        <f>COUNTIF(C:C,C63)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="G63">
-        <f>COUNTIF(D:D,D63)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64">
-        <f>COUNTIF(B:B,B64)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F64">
-        <f>COUNTIF(C:C,C64)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="G64">
-        <f>COUNTIF(D:D,D64)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65">
-        <f>COUNTIF(B:B,B65)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>COUNTIF(C:C,C65)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>COUNTIF(D:D,D65)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4">
-        <f t="shared" ref="A66:A75" si="1">ROW()-1</f>
+        <f t="shared" ref="A66:A75" si="7">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66">
-        <f>COUNTIF(B:B,B66)</f>
+        <f t="shared" ref="E66:E75" si="8">COUNTIF(B:B,B66)</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>COUNTIF(C:C,C66)</f>
+        <f t="shared" ref="F66:F75" si="9">COUNTIF(C:C,C66)</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f>COUNTIF(D:D,D66)</f>
+        <f t="shared" ref="G66:G75" si="10">COUNTIF(D:D,D66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67">
-        <f>COUNTIF(B:B,B67)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>COUNTIF(C:C,C67)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>COUNTIF(D:D,D67)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68">
-        <f>COUNTIF(B:B,B68)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>COUNTIF(C:C,C68)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>COUNTIF(D:D,D68)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69">
-        <f>COUNTIF(B:B,B69)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>COUNTIF(C:C,C69)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>COUNTIF(D:D,D69)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70">
-        <f>COUNTIF(B:B,B70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>COUNTIF(C:C,C70)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>COUNTIF(D:D,D70)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71">
-        <f>COUNTIF(B:B,B71)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>COUNTIF(C:C,C71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>COUNTIF(D:D,D71)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72">
-        <f>COUNTIF(B:B,B72)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>COUNTIF(C:C,C72)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>COUNTIF(D:D,D72)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73">
-        <f>COUNTIF(B:B,B73)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>COUNTIF(C:C,C73)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f>COUNTIF(D:D,D73)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74">
-        <f>COUNTIF(B:B,B74)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>COUNTIF(C:C,C74)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f>COUNTIF(D:D,D74)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75">
-        <f>COUNTIF(B:B,B75)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>COUNTIF(C:C,C75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f>COUNTIF(D:D,D75)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3353,13 +3410,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20:D29"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3367,8 +3424,8 @@
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3409,21 +3466,21 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="E2:E32" si="0">COUNTIF(B:B,B2)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="F2:F32" si="1">COUNTIF(C:C,C2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>COUNTIF(D:D,D2)</f>
+        <f t="shared" ref="G2:G32" si="2">COUNTIF(D:D,D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A32" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A44" si="3">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3434,21 +3491,21 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(C:C,C3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>COUNTIF(D:D,D3)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3461,21 +3518,21 @@
         <v>110</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(C:C,C4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(D:D,D4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3488,21 +3545,21 @@
         <v>117</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(C:C,C5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>COUNTIF(D:D,D5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3515,21 +3572,21 @@
         <v>118</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(C:C,C6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>COUNTIF(D:D,D6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3542,21 +3599,21 @@
         <v>119</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(C:C,C7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>COUNTIF(D:D,D7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3569,21 +3626,21 @@
         <v>120</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>COUNTIF(C:C,C8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>COUNTIF(D:D,D8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3596,21 +3653,21 @@
         <v>121</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(C:C,C9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(D:D,D9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3623,21 +3680,21 @@
         <v>128</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(C:C,C10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>COUNTIF(D:D,D10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3650,21 +3707,21 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(C:C,C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(D:D,D11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3677,21 +3734,21 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f>COUNTIF(C:C,C12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f>COUNTIF(D:D,D12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3702,21 +3759,21 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(C:C,C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f>COUNTIF(D:D,D13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3727,21 +3784,21 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(C:C,C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>COUNTIF(D:D,D14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3752,21 +3809,21 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f>COUNTIF(C:C,C15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>COUNTIF(D:D,D15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3777,21 +3834,21 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>COUNTIF(C:C,C16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>COUNTIF(D:D,D16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3804,21 +3861,21 @@
         <v>153</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>COUNTIF(C:C,C17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>COUNTIF(D:D,D17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3831,21 +3888,21 @@
         <v>150</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>COUNTIF(C:C,C18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>COUNTIF(D:D,D18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3858,21 +3915,21 @@
         <v>176</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>COUNTIF(C:C,C19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>COUNTIF(D:D,D19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3885,21 +3942,21 @@
         <v>186</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>COUNTIF(C:C,C20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f>COUNTIF(D:D,D20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3912,21 +3969,21 @@
         <v>228</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(C:C,C21)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(D:D,D21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3939,21 +3996,21 @@
         <v>229</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>COUNTIF(C:C,C22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>COUNTIF(D:D,D22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3966,21 +4023,21 @@
         <v>215</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>COUNTIF(C:C,C23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>COUNTIF(D:D,D23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3993,21 +4050,21 @@
         <v>217</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(C:C,C24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(D:D,D24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4020,21 +4077,21 @@
         <v>219</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>COUNTIF(C:C,C25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f>COUNTIF(D:D,D25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4047,21 +4104,21 @@
         <v>221</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>COUNTIF(C:C,C26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f>COUNTIF(D:D,D26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4074,21 +4131,21 @@
         <v>223</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(B:B,B27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>COUNTIF(C:C,C27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f>COUNTIF(D:D,D27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4101,21 +4158,21 @@
         <v>227</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(B:B,B28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f>COUNTIF(C:C,C28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f>COUNTIF(D:D,D28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4128,78 +4185,338 @@
         <v>226</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(B:B,B29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f>COUNTIF(C:C,C29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>COUNTIF(D:D,D29)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30">
-        <f>COUNTIF(B:B,B30)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F30">
-        <f>COUNTIF(C:C,C30)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G30">
-        <f>COUNTIF(D:D,D30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31">
-        <f>COUNTIF(B:B,B31)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f>COUNTIF(C:C,C31)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G31">
-        <f>COUNTIF(D:D,D31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32">
-        <f>COUNTIF(B:B,B32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>COUNTIF(C:C,C32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>COUNTIF(D:D,D32)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33">
+        <f t="shared" ref="E33:E44" si="4">COUNTIF(B:B,B33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F44" si="5">COUNTIF(C:C,C33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G44" si="6">COUNTIF(D:D,D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453E2A7-34C7-4390-80A1-923CA9535EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6BFA6-3E29-46BD-83FF-2E1443E4303D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="2460" windowWidth="18470" windowHeight="16850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13640" yWindow="2460" windowWidth="24780" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1139,6 +1139,36 @@
   </si>
   <si>
     <t>column</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insertion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicInformation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1501,11 +1531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3174,16 +3204,20 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <f t="shared" si="6"/>
@@ -3195,16 +3229,20 @@
         <f t="shared" ref="A66:A75" si="7">ROW()-1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66">
         <f t="shared" ref="E66:E75" si="8">COUNTIF(B:B,B66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F75" si="9">COUNTIF(C:C,C66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G75" si="10">COUNTIF(D:D,D66)</f>
@@ -3412,11 +3450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4252,16 +4290,20 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6BFA6-3E29-46BD-83FF-2E1443E4303D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8514C-6905-48B4-9B68-D0E8EEF526C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="2460" windowWidth="24780" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="23090" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="247">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1168,7 +1168,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BasicInformation</t>
+    <t>basicInformation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一連</t>
+    <rPh sb="0" eb="2">
+      <t>イチレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>series</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1531,11 +1542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3254,16 +3265,20 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <f t="shared" si="10"/>
@@ -3450,11 +3465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E8BBD-2898-44BA-95C6-C0609622CEA2}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8514C-6905-48B4-9B68-D0E8EEF526C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2056C8-3000-4D17-9A2E-6671B3C55E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="23090" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="680" windowWidth="21940" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="268">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1180,6 +1180,105 @@
   </si>
   <si>
     <t>series</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の最安値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lowestPriceInPast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去３期間の最安値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lowestPriceInLast3Periods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lpl3p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私自身</t>
+    <rPh sb="0" eb="3">
+      <t>ワタシジシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得する</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cond</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simple</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1540,13 +1639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1608,7 +1707,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A65" si="3">ROW()-1</f>
+        <f t="shared" ref="A3:A66" si="3">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1815,28 +1914,30 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1845,13 +1946,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1859,11 +1960,11 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1872,12 +1973,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1888,7 +1991,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1897,14 +2000,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1915,7 +2016,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1924,12 +2025,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1940,7 +2043,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1949,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
@@ -1974,10 +2077,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
@@ -1999,14 +2102,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2017,7 +2118,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2026,13 +2127,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -2053,23 +2154,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2078,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
@@ -2103,25 +2206,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2130,13 +2231,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -2157,13 +2258,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -2184,13 +2285,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -2198,11 +2299,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2211,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>68</v>
@@ -2238,13 +2339,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -2252,11 +2353,11 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2265,12 +2366,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2281,7 +2384,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2290,14 +2393,12 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2308,7 +2409,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2317,13 +2418,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -2344,13 +2445,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -2371,12 +2472,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2387,7 +2490,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2396,10 +2499,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33">
@@ -2421,14 +2524,12 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34">
         <f t="shared" ref="E34:E65" si="4">COUNTIF(B:B,B34)</f>
         <v>1</v>
@@ -2439,7 +2540,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G65" si="6">COUNTIF(D:D,D34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2448,13 +2549,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
@@ -2475,13 +2576,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
@@ -2502,13 +2603,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
@@ -2529,12 +2630,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E38">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2545,7 +2648,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2554,10 +2657,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39">
@@ -2579,14 +2682,12 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2597,7 +2698,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2606,12 +2707,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E41">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2622,7 +2725,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2631,14 +2734,12 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2649,7 +2750,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2658,13 +2759,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
@@ -2685,13 +2786,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
@@ -2712,12 +2813,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E45">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2728,7 +2831,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2737,14 +2840,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2755,21 +2856,23 @@
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E47">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2780,7 +2883,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2789,10 +2892,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48">
@@ -2814,10 +2917,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49">
@@ -2839,14 +2942,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="E50">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2857,7 +2958,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2866,12 +2967,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E51">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -2882,7 +2985,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2891,10 +2994,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52">
@@ -2916,10 +3019,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53">
@@ -2941,10 +3044,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54">
@@ -2966,10 +3069,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55">
@@ -2991,10 +3094,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56">
@@ -3016,10 +3119,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57">
@@ -3041,10 +3144,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58">
@@ -3066,10 +3169,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59">
@@ -3091,10 +3194,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60">
@@ -3116,10 +3219,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61">
@@ -3141,10 +3244,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62">
@@ -3153,7 +3256,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <f t="shared" si="6"/>
@@ -3166,10 +3269,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63">
@@ -3178,7 +3281,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <f t="shared" si="6"/>
@@ -3191,10 +3294,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64">
@@ -3216,10 +3319,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65">
@@ -3237,219 +3340,270 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4">
-        <f t="shared" ref="A66:A75" si="7">ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66">
-        <f t="shared" ref="E66:E75" si="8">COUNTIF(B:B,B66)</f>
+        <f t="shared" ref="E66:E76" si="7">COUNTIF(B:B,B66)</f>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F75" si="9">COUNTIF(C:C,C66)</f>
+        <f t="shared" ref="F66:F76" si="8">COUNTIF(C:C,C66)</f>
         <v>1</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G75" si="10">COUNTIF(D:D,D66)</f>
+        <f t="shared" ref="G66:G76" si="9">COUNTIF(D:D,D66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A67:A76" si="10">ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>245</v>
+      <c r="B67" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G75">
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4">
         <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3466,10 +3620,10 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:C33"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4330,20 +4484,26 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="E33">
         <f t="shared" ref="E33:E44" si="4">COUNTIF(B:B,B33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F44" si="5">COUNTIF(C:C,C33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G44" si="6">COUNTIF(D:D,D33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4351,20 +4511,26 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
+++ b/AD010_内部定義/BA010_定義/CA010010_論理名・物理名マッピング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BA010_定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2056C8-3000-4D17-9A2E-6671B3C55E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3866F65-11CA-4F94-87F1-6C98C9A4F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="680" windowWidth="21940" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="3670" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単語" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">熟語・用語!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単語!$A$1:$D$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">熟語・用語!$A$1:$D$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単語!$A$1:$G$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="274">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1279,6 +1279,36 @@
   </si>
   <si>
     <t>simple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式</t>
+    <rPh sb="0" eb="2">
+      <t>カブシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先頭</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1639,13 +1669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3351,21 +3381,21 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66">
-        <f t="shared" ref="E66:E76" si="7">COUNTIF(B:B,B66)</f>
+        <f t="shared" ref="E66:E77" si="7">COUNTIF(B:B,B66)</f>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F76" si="8">COUNTIF(C:C,C66)</f>
+        <f t="shared" ref="F66:F77" si="8">COUNTIF(C:C,C66)</f>
         <v>1</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G76" si="9">COUNTIF(D:D,D66)</f>
+        <f t="shared" ref="G66:G77" si="9">COUNTIF(D:D,D66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4">
-        <f t="shared" ref="A67:A76" si="10">ROW()-1</f>
+        <f t="shared" ref="A67:A77" si="10">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3547,14 +3577,16 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="C74" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <f t="shared" si="8"/>
@@ -3570,20 +3602,26 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3591,24 +3629,49 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="4">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5" xr:uid="{A5756CE2-7150-4E22-81F4-924D2EA1F1A4}"/>
+  <autoFilter ref="A1:D77" xr:uid="{A5756CE2-7150-4E22-81F4-924D2EA1F1A4}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
